--- a/UnitTests/IonizationFactors/LinearFits.xlsx
+++ b/UnitTests/IonizationFactors/LinearFits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7ar\Documents\180911MSRESOLVESG\MSRESOLVESG36.37ARogers\UnitTests\IonizationFactors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7ar\Documents\Programs\180911MSRESOLVESG\MSRESOLVESG36.47ARogers\UnitTests\IonizationFactors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EBE731-C66F-42EC-B37D-3B94093BD18A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85516903-0EA9-42B9-A9D9-9496FAC47FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ElectronNumbers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -203,6 +203,54 @@
   </si>
   <si>
     <t>Xylene (p-)</t>
+  </si>
+  <si>
+    <t>Type1</t>
+  </si>
+  <si>
+    <t>Type2</t>
+  </si>
+  <si>
+    <t>Benzoic Acid</t>
+  </si>
+  <si>
+    <t>Ethylene Oxide</t>
+  </si>
+  <si>
+    <t>Propene Oxide</t>
+  </si>
+  <si>
+    <t>Ethyl Ether</t>
+  </si>
+  <si>
+    <t>Methyl Ether</t>
+  </si>
+  <si>
+    <t>Acetone</t>
+  </si>
+  <si>
+    <t>Ethyl Acetate</t>
+  </si>
+  <si>
+    <t>Methyl Acetate</t>
+  </si>
+  <si>
+    <t>Carboxylic Acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoxide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ether </t>
+  </si>
+  <si>
+    <t>Ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketone </t>
+  </si>
+  <si>
+    <t>Ketone</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1228,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.19390419947506563"/>
-                  <c:y val="7.2108788125622228E-2"/>
+                  <c:y val="0.10694542492533261"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1215,252 +1263,330 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ElectronNumbers!$C$12:$C$50</c:f>
+              <c:f>(ElectronNumbers!$C$2:$C$6,ElectronNumbers!$C$12:$C$50,ElectronNumbers!$C$51:$C$58)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ElectronNumbers!$B$12:$B$50</c:f>
+              <c:f>(ElectronNumbers!$B$2:$B$6,ElectronNumbers!$B$12:$B$50,ElectronNumbers!$B$51:$B$58)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.27</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>5.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>5.9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>5.86</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>4.75</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>4.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>7.15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>0.36499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>7.8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>7.8</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>7.6</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>2.63</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>2.31</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>8.6</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>6.4</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>6.6</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>5.9</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>6.4</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>0.43</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>1.55</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>3.6</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>1.52</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>9.6999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>7.2</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>8.5</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>5.97</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>5.7</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>3.83</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>3.6</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>3.4</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>6.8</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>0.97</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>7.8</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2594,11 +2720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" activeCellId="3" sqref="A55 A57 A60 A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,7 +2743,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -2651,6 +2780,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2665,6 +2797,9 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2679,6 +2814,9 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2693,6 +2831,9 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2707,6 +2848,9 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2721,6 +2865,9 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3296,7 +3443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -3310,7 +3457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3324,8 +3471,144 @@
         <v>12</v>
       </c>
     </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51">
+        <v>5.5</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>2.5</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>3.9</v>
+      </c>
+      <c r="C53">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C54">
+        <v>42</v>
+      </c>
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56">
+        <v>3.73</v>
+      </c>
+      <c r="C56">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:D99">
+  <sortState ref="A2:D95">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UnitTests/IonizationFactors/LinearFits.xlsx
+++ b/UnitTests/IonizationFactors/LinearFits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7ar\Documents\Programs\180911MSRESOLVESG\MSRESOLVESG36.47ARogers\UnitTests\IonizationFactors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\2018RogersAlexHEREFall2018\Programs\180911MSRESOLVESG\MSRESOLVESG36.50ARogersScratch\UnitTests\IonizationFactors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85516903-0EA9-42B9-A9D9-9496FAC47FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30D12B6-50EF-4F7C-8FDF-8759EFE37B35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ElectronNumbers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -31,226 +31,46 @@
     <t>Electron Number</t>
   </si>
   <si>
+    <t>Type2</t>
+  </si>
+  <si>
+    <t>Inert</t>
+  </si>
+  <si>
+    <t>Main Group</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Ethanol</t>
+    <t>Argon</t>
   </si>
   <si>
-    <t>Alcohol</t>
+    <t>Helium</t>
   </si>
   <si>
-    <t>Isoamyl Alcohol</t>
+    <t>Krypton</t>
   </si>
   <si>
-    <t>Methanol</t>
+    <t>Neon</t>
   </si>
   <si>
-    <t>Phenol</t>
+    <t>Xenon</t>
   </si>
   <si>
-    <t>Acetaldehyde</t>
-  </si>
-  <si>
-    <t>Aldehyde</t>
-  </si>
-  <si>
-    <t>Ammonia</t>
-  </si>
-  <si>
-    <t>Hydrogen non-metal-ides</t>
-  </si>
-  <si>
-    <t>Amylene (ISO-)</t>
-  </si>
-  <si>
-    <t>Amylene (cyclo-)</t>
-  </si>
-  <si>
-    <t>Benzene</t>
-  </si>
-  <si>
-    <t>Butane (n-)</t>
-  </si>
-  <si>
-    <t>Butane (ISO-)</t>
-  </si>
-  <si>
-    <t>Cyclohexane</t>
-  </si>
-  <si>
-    <t>Dinitrobenzene (m-)</t>
-  </si>
-  <si>
-    <t>Ethane</t>
-  </si>
-  <si>
-    <t>Ethylene</t>
-  </si>
-  <si>
-    <t>Heptane</t>
-  </si>
-  <si>
-    <t>Hexadiene (1.5-)</t>
-  </si>
-  <si>
-    <t>Hexadiene (cyclo-)</t>
-  </si>
-  <si>
-    <t>Hexane</t>
-  </si>
-  <si>
-    <t>Hexene (1-)</t>
-  </si>
-  <si>
-    <t>Hexene (cyclo-)</t>
-  </si>
-  <si>
-    <t>Hydrogen Cyanide</t>
-  </si>
-  <si>
-    <t>Hydrogen Sulfide</t>
-  </si>
-  <si>
-    <t>Isobutylene</t>
-  </si>
-  <si>
-    <t>Methane</t>
-  </si>
-  <si>
-    <t>Naphthalene</t>
-  </si>
-  <si>
-    <t>Nitrobenzene</t>
-  </si>
-  <si>
-    <t>Nitrotoluene (o-; m-; p-)</t>
-  </si>
-  <si>
-    <t>Pentane (n-)</t>
-  </si>
-  <si>
-    <t>Pentane (ISO-)</t>
-  </si>
-  <si>
-    <t>Pentate (neo-)</t>
-  </si>
-  <si>
-    <t>Phosphine</t>
-  </si>
-  <si>
-    <t>Propane</t>
-  </si>
-  <si>
-    <t>Propene (n-)</t>
-  </si>
-  <si>
-    <t>Propene (cyclo-)</t>
-  </si>
-  <si>
-    <t>Toluene</t>
-  </si>
-  <si>
-    <t>Trinitrobenzene</t>
-  </si>
-  <si>
-    <t>Xylene (o-)</t>
-  </si>
-  <si>
-    <t>Deuterium</t>
-  </si>
-  <si>
-    <t>Hydrogen</t>
-  </si>
-  <si>
-    <t>Water</t>
+    <t>Carbon Monoxide</t>
   </si>
   <si>
     <t>Carbon Dioxide</t>
   </si>
   <si>
-    <t>Carbon containing nonmetals</t>
+    <t>Nitrous Oxide</t>
   </si>
   <si>
-    <t>Carbon Disulfide</t>
-  </si>
-  <si>
-    <t>Carbon Monoxide</t>
+    <t>Nitric Oxide</t>
   </si>
   <si>
     <t>Cyanogen</t>
-  </si>
-  <si>
-    <t>Added Value</t>
-  </si>
-  <si>
-    <t>Slope</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>Molecule</t>
-  </si>
-  <si>
-    <t>IonizationFactor</t>
-  </si>
-  <si>
-    <t>Dinitrobenzene (o-)</t>
-  </si>
-  <si>
-    <t>Dinitrobenzene (p-)</t>
-  </si>
-  <si>
-    <t>Xylene (p-)</t>
-  </si>
-  <si>
-    <t>Type1</t>
-  </si>
-  <si>
-    <t>Type2</t>
-  </si>
-  <si>
-    <t>Benzoic Acid</t>
-  </si>
-  <si>
-    <t>Ethylene Oxide</t>
-  </si>
-  <si>
-    <t>Propene Oxide</t>
-  </si>
-  <si>
-    <t>Ethyl Ether</t>
-  </si>
-  <si>
-    <t>Methyl Ether</t>
-  </si>
-  <si>
-    <t>Acetone</t>
-  </si>
-  <si>
-    <t>Ethyl Acetate</t>
-  </si>
-  <si>
-    <t>Methyl Acetate</t>
-  </si>
-  <si>
-    <t>Carboxylic Acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epoxide </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ether </t>
-  </si>
-  <si>
-    <t>Ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketone </t>
-  </si>
-  <si>
-    <t>Ketone</t>
   </si>
 </sst>
 </file>
@@ -818,7 +638,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Alcohols</c:v>
+            <c:v>Inert</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -853,13 +673,142 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:backward val="15"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ElectronNumbers!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ElectronNumbers!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B6E5-49F3-963D-0C28ADB5DD21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Main Group</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:backward val="15"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.23334339457567804"/>
-                  <c:y val="4.1550601629341863E-2"/>
+                  <c:x val="0.16153893263342081"/>
+                  <c:y val="0.13643527317705983"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -894,42 +843,48 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>ElectronNumbers!$C$2:$C$5</c:f>
+              <c:f>ElectronNumbers!$C$7:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ElectronNumbers!$B$2:$B$5</c:f>
+              <c:f>ElectronNumbers!$B$7:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.25</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.85</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,664 +892,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D1F-48B7-AD72-BC4C07BED529}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Aldehydes</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.15024956255468067"/>
-                  <c:y val="0.12441422094965401"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ElectronNumbers!$C$6:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ElectronNumbers!$B$6:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D1F-48B7-AD72-BC4C07BED529}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Carbon containing nonmetals</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.18888888888888888"/>
-                  <c:y val="0.14445342059515287"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ElectronNumbers!$C$8:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ElectronNumbers!$B$8:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0D1F-48B7-AD72-BC4C07BED529}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Hydrogen Non-metal-ides</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.19390419947506563"/>
-                  <c:y val="0.10694542492533261"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(ElectronNumbers!$C$2:$C$6,ElectronNumbers!$C$12:$C$50,ElectronNumbers!$C$51:$C$58)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(ElectronNumbers!$B$2:$B$6,ElectronNumbers!$B$12:$B$50,ElectronNumbers!$B$51:$B$58)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.36499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.63</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.31</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.97</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.83</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.73</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0D1F-48B7-AD72-BC4C07BED529}"/>
+              <c16:uniqueId val="{00000005-B6E5-49F3-963D-0C28ADB5DD21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1613,6 +911,7 @@
         <c:axId val="372122752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1675,6 +974,7 @@
         <c:axId val="312253800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1747,10 +1047,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65263779527559052"/>
-          <c:y val="6.1685243889968308E-2"/>
-          <c:w val="0.33497331583552054"/>
-          <c:h val="0.84091624910522544"/>
+          <c:x val="0.78874890638670181"/>
+          <c:y val="0.18045916674208831"/>
+          <c:w val="0.21125109361329833"/>
+          <c:h val="0.25862249977373519"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2386,16 +1686,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2720,11 +2020,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" activeCellId="3" sqref="A55 A57 A60 A59"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,7 +2032,7 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2743,868 +2043,150 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.15</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1.7</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.31</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C6">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>57</v>
+      <c r="D6" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>3.25</v>
-      </c>
-      <c r="C2">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2.9</v>
-      </c>
-      <c r="C3">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1.85</v>
-      </c>
-      <c r="C4">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>6.2</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>2.6</v>
-      </c>
-      <c r="C6">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="C8">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>4.83</v>
+        <v>1.7</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>1.07</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>3.03</v>
+        <v>2.7</v>
       </c>
       <c r="C11">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1.27</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>5.8</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>5.9</v>
-      </c>
-      <c r="C14">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>5.86</v>
-      </c>
-      <c r="C15">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>4.75</v>
-      </c>
-      <c r="C16">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4.8</v>
-      </c>
-      <c r="C17">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>7.15</v>
-      </c>
-      <c r="C18">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20">
-        <v>7.8</v>
-      </c>
-      <c r="C20">
-        <v>86</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>7.8</v>
-      </c>
-      <c r="C21">
-        <v>86</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22">
-        <v>7.6</v>
-      </c>
-      <c r="C22">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>2.63</v>
-      </c>
-      <c r="C23">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>2.31</v>
-      </c>
-      <c r="C24">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>8.6</v>
-      </c>
-      <c r="C25">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>6.4</v>
-      </c>
-      <c r="C26">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>6.6</v>
-      </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>5.9</v>
-      </c>
-      <c r="C29">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>6.4</v>
-      </c>
-      <c r="C30">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31">
-        <v>0.43</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32">
-        <v>1.55</v>
-      </c>
-      <c r="C32">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C33">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34">
-        <v>3.6</v>
-      </c>
-      <c r="C34">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35">
-        <v>1.52</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C36">
-        <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37">
-        <v>7.2</v>
-      </c>
-      <c r="C37">
-        <v>64</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38">
-        <v>8.5</v>
-      </c>
-      <c r="C38">
-        <v>72</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>47</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40">
-        <v>5.97</v>
-      </c>
-      <c r="C40">
-        <v>47</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41">
-        <v>5.7</v>
-      </c>
-      <c r="C41">
-        <v>42</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42">
-        <v>2.6</v>
-      </c>
-      <c r="C42">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43">
-        <v>3.83</v>
-      </c>
-      <c r="C43">
-        <v>26</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>3.6</v>
-      </c>
-      <c r="C44">
-        <v>24</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45">
-        <v>3.4</v>
-      </c>
-      <c r="C45">
-        <v>24</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46">
-        <v>6.8</v>
-      </c>
-      <c r="C46">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>108</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>0.97</v>
-      </c>
-      <c r="C48">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49">
-        <v>7.8</v>
-      </c>
-      <c r="C49">
-        <v>58</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50">
-        <v>7.9</v>
-      </c>
-      <c r="C50">
-        <v>58</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51">
-        <v>5.5</v>
-      </c>
-      <c r="C51">
-        <v>40</v>
-      </c>
-      <c r="D51" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52">
-        <v>2.5</v>
-      </c>
-      <c r="C52">
-        <v>24</v>
-      </c>
-      <c r="D52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53">
-        <v>3.9</v>
-      </c>
-      <c r="C53">
-        <v>32</v>
-      </c>
-      <c r="D53" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C54">
-        <v>42</v>
-      </c>
-      <c r="D54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55">
-        <v>26</v>
-      </c>
-      <c r="D55" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56">
-        <v>3.73</v>
-      </c>
-      <c r="C56">
-        <v>32</v>
-      </c>
-      <c r="D56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57">
         <v>5</v>
-      </c>
-      <c r="C57">
-        <v>48</v>
-      </c>
-      <c r="D57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>40</v>
-      </c>
-      <c r="D58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
